--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Cd46.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.30703293734228</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N2">
-        <v>3.30703293734228</v>
+        <v>11.181083</v>
       </c>
       <c r="O2">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P2">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q2">
-        <v>0.6491194871779832</v>
+        <v>2.344451968125111</v>
       </c>
       <c r="R2">
-        <v>0.6491194871779832</v>
+        <v>21.100067713126</v>
       </c>
       <c r="S2">
-        <v>0.0001401937458297206</v>
+        <v>0.0004073505178178395</v>
       </c>
       <c r="T2">
-        <v>0.0001401937458297206</v>
+        <v>0.0004073505178178394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.408638206650449</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N3">
-        <v>0.408638206650449</v>
+        <v>1.76074</v>
       </c>
       <c r="O3">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P3">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q3">
-        <v>0.08020936838791941</v>
+        <v>0.3691923544755556</v>
       </c>
       <c r="R3">
-        <v>0.08020936838791941</v>
+        <v>3.32273119028</v>
       </c>
       <c r="S3">
-        <v>1.732323867493929E-05</v>
+        <v>6.414748470631894E-05</v>
       </c>
       <c r="T3">
-        <v>1.732323867493929E-05</v>
+        <v>6.414748470631893E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.5240622081218</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N4">
-        <v>14.5240622081218</v>
+        <v>1.371385</v>
       </c>
       <c r="O4">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P4">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q4">
-        <v>2.850849081610269</v>
+        <v>0.2875523115522223</v>
       </c>
       <c r="R4">
-        <v>2.850849081610269</v>
+        <v>2.58797080397</v>
       </c>
       <c r="S4">
-        <v>0.000615712853243267</v>
+        <v>4.99624580085505E-05</v>
       </c>
       <c r="T4">
-        <v>0.000615712853243267</v>
+        <v>4.996245800855048E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.1690412811607</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N5">
-        <v>1.1690412811607</v>
+        <v>1.736806</v>
       </c>
       <c r="O5">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P5">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q5">
-        <v>0.2294647471902046</v>
+        <v>0.3641738680368888</v>
       </c>
       <c r="R5">
-        <v>0.2294647471902046</v>
+        <v>3.277564812332</v>
       </c>
       <c r="S5">
-        <v>4.955870695597221E-05</v>
+        <v>6.327551843136576E-05</v>
       </c>
       <c r="T5">
-        <v>4.955870695597221E-05</v>
+        <v>6.327551843136576E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30703293734228</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N6">
-        <v>3.30703293734228</v>
+        <v>46.014883</v>
       </c>
       <c r="O6">
-        <v>0.1703885484698535</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P6">
-        <v>0.1703885484698535</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q6">
-        <v>264.5655109417784</v>
+        <v>9.648410892969554</v>
       </c>
       <c r="R6">
-        <v>264.5655109417784</v>
+        <v>86.835698036726</v>
       </c>
       <c r="S6">
-        <v>0.05713960330713651</v>
+        <v>0.001676419575579333</v>
       </c>
       <c r="T6">
-        <v>0.05713960330713651</v>
+        <v>0.001676419575579333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H7">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I7">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J7">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.408638206650449</v>
+        <v>1.433359</v>
       </c>
       <c r="N7">
-        <v>0.408638206650449</v>
+        <v>4.300077</v>
       </c>
       <c r="O7">
-        <v>0.02105430220977796</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P7">
-        <v>0.02105430220977796</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q7">
-        <v>32.69141190341234</v>
+        <v>0.9016411009326667</v>
       </c>
       <c r="R7">
-        <v>32.69141190341234</v>
+        <v>8.114769908393999</v>
       </c>
       <c r="S7">
-        <v>0.007060535974858253</v>
+        <v>0.0001566609059790167</v>
       </c>
       <c r="T7">
-        <v>0.007060535974858253</v>
+        <v>0.0001566609059790166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.5240622081218</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N8">
-        <v>14.5240622081218</v>
+        <v>11.181083</v>
       </c>
       <c r="O8">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P8">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q8">
-        <v>1161.937607470588</v>
+        <v>308.8915967305866</v>
       </c>
       <c r="R8">
-        <v>1161.937607470588</v>
+        <v>2780.024370575279</v>
       </c>
       <c r="S8">
-        <v>0.2509497693866959</v>
+        <v>0.05367017690637924</v>
       </c>
       <c r="T8">
-        <v>0.2509497693866959</v>
+        <v>0.05367017690637923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.1690412811607</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N9">
-        <v>1.1690412811607</v>
+        <v>1.76074</v>
       </c>
       <c r="O9">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P9">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q9">
-        <v>93.52431914720309</v>
+        <v>48.64267531395778</v>
       </c>
       <c r="R9">
-        <v>93.52431914720309</v>
+        <v>437.78407782562</v>
       </c>
       <c r="S9">
-        <v>0.02019893854122667</v>
+        <v>0.008451706090200581</v>
       </c>
       <c r="T9">
-        <v>0.02019893854122667</v>
+        <v>0.008451706090200579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.30703293734228</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N10">
-        <v>3.30703293734228</v>
+        <v>1.371385</v>
       </c>
       <c r="O10">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P10">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q10">
-        <v>91.62427618615072</v>
+        <v>37.88624969355612</v>
       </c>
       <c r="R10">
-        <v>91.62427618615072</v>
+        <v>340.976247242005</v>
       </c>
       <c r="S10">
-        <v>0.01978857628095103</v>
+        <v>0.006582768016010158</v>
       </c>
       <c r="T10">
-        <v>0.01978857628095103</v>
+        <v>0.006582768016010155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.408638206650449</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N11">
-        <v>0.408638206650449</v>
+        <v>1.736806</v>
       </c>
       <c r="O11">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P11">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q11">
-        <v>11.32168339890922</v>
+        <v>47.98146821298644</v>
       </c>
       <c r="R11">
-        <v>11.32168339890922</v>
+        <v>431.833213916878</v>
       </c>
       <c r="S11">
-        <v>0.002445203442730784</v>
+        <v>0.008336820795629625</v>
       </c>
       <c r="T11">
-        <v>0.002445203442730784</v>
+        <v>0.008336820795629625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J12">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.5240622081218</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N12">
-        <v>14.5240622081218</v>
+        <v>46.014883</v>
       </c>
       <c r="O12">
-        <v>0.7483245327204289</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P12">
-        <v>0.7483245327204289</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q12">
-        <v>402.4020057602625</v>
+        <v>1271.219494859409</v>
       </c>
       <c r="R12">
-        <v>402.4020057602625</v>
+        <v>11440.97545373468</v>
       </c>
       <c r="S12">
-        <v>0.08690887522447108</v>
+        <v>0.2208754653673837</v>
       </c>
       <c r="T12">
-        <v>0.08690887522447108</v>
+        <v>0.2208754653673836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J13">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.1690412811607</v>
+        <v>1.433359</v>
       </c>
       <c r="N13">
-        <v>1.1690412811607</v>
+        <v>4.300077</v>
       </c>
       <c r="O13">
-        <v>0.06023261659993959</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P13">
-        <v>0.06023261659993959</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q13">
-        <v>32.38932397938595</v>
+        <v>118.7950801004223</v>
       </c>
       <c r="R13">
-        <v>32.38932397938595</v>
+        <v>1069.155720903801</v>
       </c>
       <c r="S13">
-        <v>0.006995292458871233</v>
+        <v>0.02064074591889288</v>
       </c>
       <c r="T13">
-        <v>0.006995292458871233</v>
+        <v>0.02064074591889287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.30703293734228</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N14">
-        <v>3.30703293734228</v>
+        <v>11.181083</v>
       </c>
       <c r="O14">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P14">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q14">
-        <v>99.56172741676536</v>
+        <v>152.8846477266449</v>
       </c>
       <c r="R14">
-        <v>99.56172741676536</v>
+        <v>1375.961829539804</v>
       </c>
       <c r="S14">
-        <v>0.02150286932305081</v>
+        <v>0.02656383720569503</v>
       </c>
       <c r="T14">
-        <v>0.02150286932305081</v>
+        <v>0.02656383720569503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.408638206650449</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N15">
-        <v>0.408638206650449</v>
+        <v>1.76074</v>
       </c>
       <c r="O15">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P15">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q15">
-        <v>12.30248579722475</v>
+        <v>24.07549560612445</v>
       </c>
       <c r="R15">
-        <v>12.30248579722475</v>
+        <v>216.67946045512</v>
       </c>
       <c r="S15">
-        <v>0.002657032489392768</v>
+        <v>0.004183137780262921</v>
       </c>
       <c r="T15">
-        <v>0.002657032489392768</v>
+        <v>0.004183137780262919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.5240622081218</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N16">
-        <v>14.5240622081218</v>
+        <v>1.371385</v>
       </c>
       <c r="O16">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P16">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q16">
-        <v>437.2622680048922</v>
+        <v>18.75164620659778</v>
       </c>
       <c r="R16">
-        <v>437.2622680048922</v>
+        <v>168.76481585938</v>
       </c>
       <c r="S16">
-        <v>0.09443782920169314</v>
+        <v>0.003258114431878566</v>
       </c>
       <c r="T16">
-        <v>0.09443782920169314</v>
+        <v>0.003258114431878564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H17">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I17">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J17">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.1690412811607</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N17">
-        <v>1.1690412811607</v>
+        <v>1.736806</v>
       </c>
       <c r="O17">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P17">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q17">
-        <v>35.19522532104165</v>
+        <v>23.74823382310311</v>
       </c>
       <c r="R17">
-        <v>35.19522532104165</v>
+        <v>213.734104407928</v>
       </c>
       <c r="S17">
-        <v>0.007601297712581161</v>
+        <v>0.004126275767908561</v>
       </c>
       <c r="T17">
-        <v>0.007601297712581161</v>
+        <v>0.004126275767908561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H18">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I18">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J18">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.30703293734228</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N18">
-        <v>3.30703293734228</v>
+        <v>46.014883</v>
       </c>
       <c r="O18">
-        <v>0.1703885484698535</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P18">
-        <v>0.1703885484698535</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q18">
-        <v>331.2344130736387</v>
+        <v>629.1849526238004</v>
       </c>
       <c r="R18">
-        <v>331.2344130736387</v>
+        <v>5662.664573614204</v>
       </c>
       <c r="S18">
-        <v>0.07153843634919212</v>
+        <v>0.1093214191372252</v>
       </c>
       <c r="T18">
-        <v>0.07153843634919212</v>
+        <v>0.1093214191372252</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>100.160602978402</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H19">
-        <v>100.160602978402</v>
+        <v>123.061588</v>
       </c>
       <c r="I19">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J19">
-        <v>0.4198547202357866</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.408638206650449</v>
+        <v>1.433359</v>
       </c>
       <c r="N19">
-        <v>0.408638206650449</v>
+        <v>4.300077</v>
       </c>
       <c r="O19">
-        <v>0.02105430220977796</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P19">
-        <v>0.02105430220977796</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q19">
-        <v>40.92944917812181</v>
+        <v>58.79714490469734</v>
       </c>
       <c r="R19">
-        <v>40.92944917812181</v>
+        <v>529.174304142276</v>
       </c>
       <c r="S19">
-        <v>0.008839748164046026</v>
+        <v>0.01021605379371153</v>
       </c>
       <c r="T19">
-        <v>0.008839748164046026</v>
+        <v>0.01021605379371153</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H20">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I20">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J20">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5240622081218</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N20">
-        <v>14.5240622081218</v>
+        <v>11.181083</v>
       </c>
       <c r="O20">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P20">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q20">
-        <v>1454.7388284613</v>
+        <v>112.4130008907331</v>
       </c>
       <c r="R20">
-        <v>1454.7388284613</v>
+        <v>1011.717008016598</v>
       </c>
       <c r="S20">
-        <v>0.3141875873309114</v>
+        <v>0.01953185424349616</v>
       </c>
       <c r="T20">
-        <v>0.3141875873309114</v>
+        <v>0.01953185424349616</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H21">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I21">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J21">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.1690412811607</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N21">
-        <v>1.1690412811607</v>
+        <v>1.76074</v>
       </c>
       <c r="O21">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P21">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q21">
-        <v>117.0918796276993</v>
+        <v>17.70222680471556</v>
       </c>
       <c r="R21">
-        <v>117.0918796276993</v>
+        <v>159.32004124244</v>
       </c>
       <c r="S21">
-        <v>0.02528894839163703</v>
+        <v>0.003075776920777123</v>
       </c>
       <c r="T21">
-        <v>0.02528894839163703</v>
+        <v>0.003075776920777122</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H22">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I22">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J22">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.30703293734228</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N22">
-        <v>3.30703293734228</v>
+        <v>1.371385</v>
       </c>
       <c r="O22">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P22">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q22">
-        <v>1.291210261847853</v>
+        <v>13.78770761531222</v>
       </c>
       <c r="R22">
-        <v>1.291210261847853</v>
+        <v>124.08936853781</v>
       </c>
       <c r="S22">
-        <v>0.0002788694636933475</v>
+        <v>0.002395625891670511</v>
       </c>
       <c r="T22">
-        <v>0.0002788694636933475</v>
+        <v>0.00239562589167051</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H23">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I23">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J23">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.408638206650449</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N23">
-        <v>0.408638206650449</v>
+        <v>1.736806</v>
       </c>
       <c r="O23">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P23">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q23">
-        <v>0.1595502239642655</v>
+        <v>17.46159780989289</v>
       </c>
       <c r="R23">
-        <v>0.1595502239642655</v>
+        <v>157.154380289036</v>
       </c>
       <c r="S23">
-        <v>3.445890007518465E-05</v>
+        <v>0.003033967428846525</v>
       </c>
       <c r="T23">
-        <v>3.445890007518465E-05</v>
+        <v>0.003033967428846525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H24">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I24">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J24">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.5240622081218</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N24">
-        <v>14.5240622081218</v>
+        <v>46.014883</v>
       </c>
       <c r="O24">
-        <v>0.7483245327204289</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P24">
-        <v>0.7483245327204289</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q24">
-        <v>5.670828964260313</v>
+        <v>462.6270177643775</v>
       </c>
       <c r="R24">
-        <v>5.670828964260313</v>
+        <v>4163.643159879398</v>
       </c>
       <c r="S24">
-        <v>0.001224758723414109</v>
+        <v>0.08038183669574131</v>
       </c>
       <c r="T24">
-        <v>0.001224758723414109</v>
+        <v>0.0803818366957413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H25">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I25">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J25">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.1690412811607</v>
+        <v>1.433359</v>
       </c>
       <c r="N25">
-        <v>1.1690412811607</v>
+        <v>4.300077</v>
       </c>
       <c r="O25">
-        <v>0.06023261659993959</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P25">
-        <v>0.06023261659993959</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q25">
-        <v>0.4564448335889754</v>
+        <v>43.23235590248467</v>
       </c>
       <c r="R25">
-        <v>0.4564448335889754</v>
+        <v>389.091203122362</v>
       </c>
       <c r="S25">
-        <v>9.858078866752031E-05</v>
+        <v>0.007511658503904341</v>
       </c>
       <c r="T25">
-        <v>9.858078866752031E-05</v>
+        <v>0.007511658503904339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H26">
+        <v>315.250706</v>
+      </c>
+      <c r="I26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J26">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.727027666666667</v>
+      </c>
+      <c r="N26">
+        <v>11.181083</v>
+      </c>
+      <c r="O26">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="P26">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="Q26">
+        <v>391.6493677327331</v>
+      </c>
+      <c r="R26">
+        <v>3524.844309594598</v>
+      </c>
+      <c r="S26">
+        <v>0.06804940980579924</v>
+      </c>
+      <c r="T26">
+        <v>0.06804940980579922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H27">
+        <v>315.250706</v>
+      </c>
+      <c r="I27">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J27">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.5869133333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.76074</v>
+      </c>
+      <c r="O27">
+        <v>0.02653116386363687</v>
+      </c>
+      <c r="P27">
+        <v>0.02653116386363686</v>
+      </c>
+      <c r="Q27">
+        <v>61.67494756471556</v>
+      </c>
+      <c r="R27">
+        <v>555.07452808244</v>
+      </c>
+      <c r="S27">
+        <v>0.01071607444658652</v>
+      </c>
+      <c r="T27">
+        <v>0.01071607444658652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H28">
+        <v>315.250706</v>
+      </c>
+      <c r="I28">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J28">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4571283333333334</v>
+      </c>
+      <c r="N28">
+        <v>1.371385</v>
+      </c>
+      <c r="O28">
+        <v>0.02066428896664678</v>
+      </c>
+      <c r="P28">
+        <v>0.02066428896664677</v>
+      </c>
+      <c r="Q28">
+        <v>48.03667660531222</v>
+      </c>
+      <c r="R28">
+        <v>432.33008944781</v>
+      </c>
+      <c r="S28">
+        <v>0.008346413300619089</v>
+      </c>
+      <c r="T28">
+        <v>0.008346413300619087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H29">
+        <v>315.250706</v>
+      </c>
+      <c r="I29">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J29">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.5789353333333332</v>
+      </c>
+      <c r="N29">
+        <v>1.736806</v>
+      </c>
+      <c r="O29">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="P29">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="Q29">
+        <v>60.83659085389288</v>
+      </c>
+      <c r="R29">
+        <v>547.5293176850359</v>
+      </c>
+      <c r="S29">
+        <v>0.01057040925706132</v>
+      </c>
+      <c r="T29">
+        <v>0.01057040925706132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H30">
+        <v>315.250706</v>
+      </c>
+      <c r="I30">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J30">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.33829433333333</v>
+      </c>
+      <c r="N30">
+        <v>46.014883</v>
+      </c>
+      <c r="O30">
+        <v>0.6933609738173031</v>
+      </c>
+      <c r="P30">
+        <v>0.693360973817303</v>
+      </c>
+      <c r="Q30">
+        <v>1611.802705806377</v>
+      </c>
+      <c r="R30">
+        <v>14506.2243522574</v>
+      </c>
+      <c r="S30">
+        <v>0.280052087121874</v>
+      </c>
+      <c r="T30">
+        <v>0.2800520871218739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H31">
+        <v>315.250706</v>
+      </c>
+      <c r="I31">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J31">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.433359</v>
+      </c>
+      <c r="N31">
+        <v>4.300077</v>
+      </c>
+      <c r="O31">
+        <v>0.0647943748158479</v>
+      </c>
+      <c r="P31">
+        <v>0.06479437481584789</v>
+      </c>
+      <c r="Q31">
+        <v>150.6224789004847</v>
+      </c>
+      <c r="R31">
+        <v>1355.602310104362</v>
+      </c>
+      <c r="S31">
+        <v>0.02617078345357885</v>
+      </c>
+      <c r="T31">
+        <v>0.02617078345357884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H32">
+        <v>1.186187</v>
+      </c>
+      <c r="I32">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J32">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.727027666666667</v>
+      </c>
+      <c r="N32">
+        <v>11.181083</v>
+      </c>
+      <c r="O32">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="P32">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="Q32">
+        <v>1.473650588946778</v>
+      </c>
+      <c r="R32">
+        <v>13.262855300521</v>
+      </c>
+      <c r="S32">
+        <v>0.0002560480396491533</v>
+      </c>
+      <c r="T32">
+        <v>0.0002560480396491533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H33">
+        <v>1.186187</v>
+      </c>
+      <c r="I33">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J33">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.5869133333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.76074</v>
+      </c>
+      <c r="O33">
+        <v>0.02653116386363687</v>
+      </c>
+      <c r="P33">
+        <v>0.02653116386363686</v>
+      </c>
+      <c r="Q33">
+        <v>0.2320629887088889</v>
+      </c>
+      <c r="R33">
+        <v>2.08856689838</v>
+      </c>
+      <c r="S33">
+        <v>4.032114110340208E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.032114110340207E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H34">
+        <v>1.186187</v>
+      </c>
+      <c r="I34">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J34">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4571283333333334</v>
+      </c>
+      <c r="N34">
+        <v>1.371385</v>
+      </c>
+      <c r="O34">
+        <v>0.02066428896664678</v>
+      </c>
+      <c r="P34">
+        <v>0.02066428896664677</v>
+      </c>
+      <c r="Q34">
+        <v>0.1807465621105556</v>
+      </c>
+      <c r="R34">
+        <v>1.626719058995</v>
+      </c>
+      <c r="S34">
+        <v>3.140486845990269E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.140486845990269E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H35">
+        <v>1.186187</v>
+      </c>
+      <c r="I35">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J35">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.5789353333333332</v>
+      </c>
+      <c r="N35">
+        <v>1.736806</v>
+      </c>
+      <c r="O35">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="P35">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="Q35">
+        <v>0.2289085220802222</v>
+      </c>
+      <c r="R35">
+        <v>2.060176698722</v>
+      </c>
+      <c r="S35">
+        <v>3.977304985133258E-05</v>
+      </c>
+      <c r="T35">
+        <v>3.977304985133258E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H36">
+        <v>1.186187</v>
+      </c>
+      <c r="I36">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J36">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.33829433333333</v>
+      </c>
+      <c r="N36">
+        <v>46.014883</v>
+      </c>
+      <c r="O36">
+        <v>0.6933609738173031</v>
+      </c>
+      <c r="P36">
+        <v>0.693360973817303</v>
+      </c>
+      <c r="Q36">
+        <v>6.064695113457888</v>
+      </c>
+      <c r="R36">
+        <v>54.58225602112099</v>
+      </c>
+      <c r="S36">
+        <v>0.001053745919499493</v>
+      </c>
+      <c r="T36">
+        <v>0.001053745919499493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H37">
+        <v>1.186187</v>
+      </c>
+      <c r="I37">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J37">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.433359</v>
+      </c>
+      <c r="N37">
+        <v>4.300077</v>
+      </c>
+      <c r="O37">
+        <v>0.0647943748158479</v>
+      </c>
+      <c r="P37">
+        <v>0.06479437481584789</v>
+      </c>
+      <c r="Q37">
+        <v>0.5667439373776667</v>
+      </c>
+      <c r="R37">
+        <v>5.100695436399</v>
+      </c>
+      <c r="S37">
+        <v>9.847223978128168E-05</v>
+      </c>
+      <c r="T37">
+        <v>9.847223978128166E-05</v>
       </c>
     </row>
   </sheetData>
